--- a/Working docs/PEEP/PEEP_EDUCATOR/COLOR/材料清单.xlsx
+++ b/Working docs/PEEP/PEEP_EDUCATOR/COLOR/材料清单.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="11360" yWindow="520" windowWidth="28800" windowHeight="16080" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="材料清单" sheetId="1" r:id="rId1"/>
-    <sheet name="开始圆圈" sheetId="3" r:id="rId2"/>
-    <sheet name="启智阁材料清单" sheetId="4" r:id="rId3"/>
+    <sheet name="课程－材料" sheetId="3" r:id="rId2"/>
+    <sheet name="启智阁（KG）材料清单" sheetId="4" r:id="rId3"/>
     <sheet name="发送给KG" sheetId="2" r:id="rId4"/>
     <sheet name="购买清单" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="195">
   <si>
     <t>材料</t>
     <rPh sb="0" eb="1">
@@ -110,38 +110,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不同颜色的蜡笔（或油画棒）套装</t>
-    <rPh sb="0" eb="1">
-      <t>bu tong yan se</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>la bi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>huo you hua bang</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>tao zhuang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>围兜</t>
     <rPh sb="0" eb="1">
       <t>wei dou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长自备</t>
-    <rPh sb="0" eb="1">
-      <t>jia zhang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zi bei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,13 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A1白纸</t>
-    <rPh sb="2" eb="3">
-      <t>bai zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提前画好颜色表格</t>
     <rPh sb="0" eb="1">
       <t>ti qian</t>
@@ -939,16 +903,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>颜料黑色</t>
-    <rPh sb="0" eb="1">
-      <t>yan liao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hei se</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>环节1</t>
     <rPh sb="0" eb="1">
       <t>huan jie</t>
@@ -1484,9 +1438,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打印［空白记录卡片3.jpeg］</t>
+    <t>硬纸片A4</t>
+    <rPh sb="0" eb="1">
+      <t>ying</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画表格</t>
+    <rPh sb="0" eb="1">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>biao ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘画纸A4</t>
+    <rPh sb="0" eb="1">
+      <t>hui hua zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印</t>
     <rPh sb="0" eb="1">
       <t>da yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装油画棒的盒子</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>you hua bang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油画棒24色</t>
+    <rPh sb="0" eb="1">
+      <t>you hua bang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指画颜料白色</t>
+    <rPh sb="0" eb="1">
+      <t>shou zhi hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yan liao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bai se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜料收纳盘</t>
+    <rPh sb="0" eb="1">
+      <t>yan liao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou na pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛刷</t>
+    <rPh sb="0" eb="1">
+      <t>mao shua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地出借物品清单</t>
+    <rPh sb="0" eb="1">
+      <t>chang di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu jie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu pin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qing dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印［场地出借物品清单.pdf］</t>
+    <rPh sb="0" eb="1">
+      <t>da yin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chang di chu jie wu pin qing dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印纸片A4</t>
+    <rPh sb="0" eb="1">
+      <t>da yin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手写［空白记录卡片3.jpeg］</t>
+    <rPh sb="0" eb="1">
+      <t>shou xie</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>kong bai</t>
@@ -1497,9 +1580,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打印［空白记录卡片2.jpeg］</t>
-    <rPh sb="0" eb="1">
-      <t>da yin</t>
+    <t>手写［空白记录卡片2.jpeg］</t>
+    <rPh sb="0" eb="1">
+      <t>shou xie</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>kong bai</t>
@@ -1510,89 +1593,222 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>硬纸片A4</t>
-    <rPh sb="0" eb="1">
-      <t>ying</t>
+    <t>需手写，剪裁</t>
+    <rPh sb="0" eb="1">
+      <t>xu</t>
     </rPh>
     <rPh sb="1" eb="2">
-      <t>zhi pian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画表格</t>
-    <rPh sb="0" eb="1">
-      <t>hua</t>
-    </rPh>
+      <t>shou xie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需手写，剪裁</t>
+    <rPh sb="0" eb="1">
+      <t>xu shou xie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄叶琴</t>
+    <rPh sb="0" eb="1">
+      <t>huang ye qin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已买</t>
+    <rPh sb="0" eb="1">
+      <t>yi mai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺基亚打印</t>
+    <rPh sb="0" eb="1">
+      <t>nuo ji ya da yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺基亚打印</t>
+    <rPh sb="0" eb="1">
+      <t>nuo ji ya</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴恩平</t>
+    <rPh sb="0" eb="1">
+      <t>wu en ping</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷兰白卡</t>
+    <rPh sb="0" eb="1">
+      <t>he lan bai ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100张</t>
+    <rPh sb="3" eb="4">
+      <t>zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉伯嘉油画棒24色</t>
+    <rPh sb="3" eb="4">
+      <t>you hua bang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2盒</t>
     <rPh sb="1" eb="2">
-      <t>biao ge</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绘画纸A4</t>
-    <rPh sb="0" eb="1">
-      <t>hui hua zhi</t>
+      <t>he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励贴纸</t>
+    <rPh sb="0" eb="1">
+      <t>jiang li</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印</t>
+      <t>tie zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指画颜料</t>
+    <rPh sb="0" eb="1">
+      <t>shou zhi hua yan liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1套</t>
+    <rPh sb="1" eb="2">
+      <t>tao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生评估表</t>
+    <rPh sb="0" eb="1">
+      <t>xue sheng ping gu biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印［ColorW1D1_Evaluation.xlsx］</t>
     <rPh sb="0" eb="1">
       <t>da yin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装油画棒的盒子</t>
-    <rPh sb="0" eb="1">
-      <t>zhuang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>you hua bang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>he zi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油画棒24色</t>
-    <rPh sb="0" eb="1">
-      <t>you hua bang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>se</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手指画颜料白色</t>
-    <rPh sb="0" eb="1">
-      <t>shou zhi hua</t>
+    <t>课程评估表</t>
+    <rPh sb="0" eb="1">
+      <t>ke cheng ping gu biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印［课程评估表_ScienceTalk.xlsx］</t>
+    <rPh sb="0" eb="1">
+      <t>da yin</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>yan liao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>bai se</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜料收纳盘</t>
-    <rPh sb="0" eb="1">
-      <t>yan liao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shou na pan</t>
-    </rPh>
+      <t>ke cheng ping gu biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印［课程评估表_Ref&amp;Doc.xlsx］</t>
+    <rPh sb="0" eb="1">
+      <t>da yin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke cheng ping gu biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印［课程评估表_LearningEnv.xlsx］</t>
+    <rPh sb="0" eb="1">
+      <t>da yin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke cheng ping gu biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印［课程评估表_IndInstruct.xlsx］</t>
+    <rPh sb="0" eb="1">
+      <t>da yin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke cheng ping gu biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供方</t>
+    <rPh sb="0" eb="1">
+      <t>ti gong f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油画棒套装</t>
+    <rPh sb="0" eb="1">
+      <t>you hua bang tao zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1920,7 +2136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2067,6 +2283,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2344,361 +2568,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B24" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="1">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="2" t="s">
+      <c r="E32" t="s">
         <v>36</v>
-      </c>
-      <c r="C27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
     <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2709,7 +2958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -2721,7 +2970,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2734,37 +2983,37 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2777,40 +3026,40 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2826,23 +3075,23 @@
         <v>5</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2850,50 +3099,50 @@
         <v>6</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2906,42 +3155,42 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2952,26 +3201,26 @@
         <v>1</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="30" t="s">
         <v>112</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" s="23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D36" s="30"/>
     </row>
@@ -2982,21 +3231,21 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D39" s="30"/>
     </row>
@@ -3007,66 +3256,66 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" s="23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C41" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="32" t="s">
         <v>122</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D42" s="32"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D44" s="32"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D46" s="33"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3082,90 +3331,90 @@
         <v>5</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="23" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D53" s="34"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" s="23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D54" s="34"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" s="23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D56" s="34"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D57" s="34"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D58" s="34"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" s="25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D59" s="34"/>
     </row>
@@ -3176,7 +3425,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -3192,31 +3441,31 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" s="23" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" s="23" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B65" s="25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -3229,10 +3478,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B69" s="25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3255,8 +3504,8 @@
   </sheetPr>
   <dimension ref="B3:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3279,16 +3528,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -3299,7 +3548,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4" s="53"/>
       <c r="F4" s="54"/>
@@ -3311,13 +3560,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F5" s="58"/>
       <c r="G5" s="58"/>
@@ -3328,10 +3577,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="53"/>
       <c r="F6" s="59"/>
@@ -3343,13 +3592,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F7" s="58"/>
       <c r="G7" s="61"/>
@@ -3359,10 +3608,10 @@
       <c r="B8" s="37"/>
       <c r="C8" s="60"/>
       <c r="D8" s="56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F8" s="58"/>
       <c r="G8" s="61"/>
@@ -3372,10 +3621,10 @@
       <c r="B9" s="37"/>
       <c r="C9" s="60"/>
       <c r="D9" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="57" t="s">
         <v>62</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>65</v>
       </c>
       <c r="F9" s="58"/>
       <c r="G9" s="61"/>
@@ -3385,10 +3634,10 @@
       <c r="B10" s="37"/>
       <c r="C10" s="60"/>
       <c r="D10" s="56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F10" s="58"/>
       <c r="G10" s="61"/>
@@ -3399,10 +3648,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="59"/>
@@ -3414,10 +3663,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E12" s="57"/>
       <c r="F12" s="58"/>
@@ -3429,10 +3678,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="59"/>
@@ -3444,10 +3693,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="61"/>
@@ -3459,10 +3708,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="59"/>
@@ -3474,13 +3723,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F16" s="61"/>
       <c r="G16" s="61"/>
@@ -3563,13 +3812,13 @@
     </row>
     <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="C26" s="45" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D26" s="46"/>
       <c r="E26" s="47"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H26" s="38"/>
     </row>
@@ -3631,15 +3880,15 @@
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C34" s="44" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="70" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F34" s="39"/>
       <c r="G34" s="39" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H34" s="26"/>
     </row>
@@ -3665,7 +3914,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3684,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3695,7 +3944,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3706,10 +3955,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3717,13 +3966,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3732,10 +3981,10 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3743,23 +3992,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="6"/>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3767,10 +4016,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3778,10 +4027,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -3789,16 +4038,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3806,10 +4055,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3817,10 +4066,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3828,43 +4077,43 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3872,10 +4121,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3883,10 +4132,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3894,13 +4143,13 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3908,10 +4157,10 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3919,10 +4168,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3930,10 +4179,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3941,10 +4190,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3952,10 +4201,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3963,13 +4212,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3977,10 +4226,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4001,10 +4250,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4014,7 +4263,7 @@
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4025,227 +4274,378 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="B2" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4">
         <v>5</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="71" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="71" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>154</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="F4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
       <c r="B5" s="71" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="71" t="s">
-        <v>157</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="72" t="s">
+        <v>181</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="71" t="s">
-        <v>159</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="72"/>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="71" t="s">
-        <v>159</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="72"/>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="72"/>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
       <c r="B10" s="71" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
       <c r="B11" s="71" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="B12" s="71" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="B13" s="71" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
       <c r="B14" s="71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="71" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="71" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="71" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="71" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="71" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="71" t="s">
+      <c r="B30" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="75"/>
+      <c r="B31" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="75"/>
+      <c r="B32" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="74">
+        <v>28.71</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" s="74">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="74">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="74">
+        <v>62.13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A24:A26"/>
+  <mergeCells count="3">
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A2:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
